--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt7b-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt7b-Fzd5.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H2">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.170377</v>
+        <v>2.8377025</v>
       </c>
       <c r="N2">
-        <v>4.340754</v>
+        <v>5.675405</v>
       </c>
       <c r="O2">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="P2">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
       <c r="Q2">
-        <v>0.6469372946520001</v>
+        <v>1.6614663006425</v>
       </c>
       <c r="R2">
-        <v>2.587749178608</v>
+        <v>6.645865202569999</v>
       </c>
       <c r="S2">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="T2">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H3">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>15.185923</v>
       </c>
       <c r="O3">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="P3">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
       <c r="Q3">
-        <v>1.508853061382667</v>
+        <v>2.963770786243666</v>
       </c>
       <c r="R3">
-        <v>9.053118368295999</v>
+        <v>17.782624717462</v>
       </c>
       <c r="S3">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="T3">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H4">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.815520666666667</v>
+        <v>4.372280666666666</v>
       </c>
       <c r="N4">
-        <v>11.446562</v>
+        <v>13.116842</v>
       </c>
       <c r="O4">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="P4">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
       <c r="Q4">
-        <v>1.137315138237333</v>
+        <v>2.559957213491332</v>
       </c>
       <c r="R4">
-        <v>6.823890829424</v>
+        <v>15.359743280948</v>
       </c>
       <c r="S4">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="T4">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H5">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.3695805</v>
+        <v>2.1625465</v>
       </c>
       <c r="N5">
-        <v>4.739161</v>
+        <v>4.325093</v>
       </c>
       <c r="O5">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="P5">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
       <c r="Q5">
-        <v>0.706315077118</v>
+        <v>1.2661644881105</v>
       </c>
       <c r="R5">
-        <v>2.825260308472</v>
+        <v>5.064657952441999</v>
       </c>
       <c r="S5">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="T5">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H6">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.288577</v>
+        <v>15.97657333333333</v>
       </c>
       <c r="N6">
-        <v>9.865731</v>
+        <v>47.92972</v>
       </c>
       <c r="O6">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="P6">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
       <c r="Q6">
-        <v>0.980245877852</v>
+        <v>9.354235756946666</v>
       </c>
       <c r="R6">
-        <v>5.881475267112</v>
+        <v>56.12541454167999</v>
       </c>
       <c r="S6">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="T6">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.298076</v>
+        <v>0.5854969999999999</v>
       </c>
       <c r="H7">
-        <v>0.596152</v>
+        <v>1.170994</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.666218666666667</v>
+        <v>2.894743333333333</v>
       </c>
       <c r="N7">
-        <v>13.998656</v>
+        <v>8.684229999999999</v>
       </c>
       <c r="O7">
-        <v>0.2183307357409577</v>
+        <v>0.08691403710794816</v>
       </c>
       <c r="P7">
-        <v>0.2349682939430755</v>
+        <v>0.0914926779403015</v>
       </c>
       <c r="Q7">
-        <v>1.390887795285333</v>
+        <v>1.694863537436666</v>
       </c>
       <c r="R7">
-        <v>8.345326771712001</v>
+        <v>10.16918122462</v>
       </c>
       <c r="S7">
-        <v>0.2183307357409577</v>
+        <v>0.08691403710794816</v>
       </c>
       <c r="T7">
-        <v>0.2349682939430755</v>
+        <v>0.0914926779403015</v>
       </c>
     </row>
   </sheetData>
